--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32879-d4757870-Reviews-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Econo-Lodge-Pico-Rivera.h22744.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,162 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r432257010-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>32879</t>
+  </si>
+  <si>
+    <t>4757870</t>
+  </si>
+  <si>
+    <t>432257010</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Basic but clean room and secure parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic hotel with clean and comfortable rooms and secure parking. Perfectly suitable if you are just looking for an affordable place to stay in the area... I would recommend this place to friends and family and will also be staying here again when in the vicinity. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r415684322-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>415684322</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Worst place ever</t>
+  </si>
+  <si>
+    <t>Worst place ever so rude and need un-professional .I stayed with my 2 kids for the first time and one hour later of checking in Lady in front desk called me to tell me that i need to leave because the last Time I was there I left the room a mess and housekeeping complaint, first this was my FIRST time ever in this hotel so what does she mean my last time in there? Second she said she will give me a full refund and she didn't she deducted 30 dollar for one hour that I was in there. My worst experience ever. Heartless staff and very rude.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r372959302-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>372959302</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Just an overnight stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was way over priced for what I paid for. The bath tub had red dots in it. The towels were covered with black hair. The sink and counter had hairs all over it. The tv remote had dead batteries and also the smell of the room was so strong that I literally got sick. I also had a fighting family next to me with a crying and screaming kid. I mean the only good thing about this place was the front desk clerk was nice. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r294826206-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>294826206</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Would not return</t>
+  </si>
+  <si>
+    <t>Found the whole encounter underwhelming Check in , no personality couldn't tell me where food areas were located ,,, grounds were dirty with trash as was the stair way which was really gross!!! And smelly !!Place has a stench so much I bought Febrese. Freshener !!! Phone handset came out trying to use ... Exhaust fan in bathroom above shower was left uncovered Dusty and dirty . TV was great!! Nice flat screen.. Housekeepers were accommodating , the only smile you'll see there ! Just felt creepy</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r259347445-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>259347445</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Fleas</t>
+  </si>
+  <si>
+    <t>The sign at reception says no pets aloud yet I found 6 Fluffy friends (fleas) in my bed. When we told reception they did not appear concerned with our complaint they just responded with " would you like another room?". We politely declined the offer and took the full refund and found a flea free motel elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r250263725-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>250263725</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>One of the nicer Econo Lodges</t>
+  </si>
+  <si>
+    <t>Econo Lodges throughout the US can be "hit or miss." This was definitely a "hit." The bed was comfy-no complaints there. The rooms were equipped with a blow dryer, microwave and ironing board (obtain iron from front desk). It is 1.9 miles from a Walmart and other strip shopping. Some covered parking available. The only thing that wasn't up to par were the TVs (still using "tube" TVs that don't have a good picture.) But unless you are there for TV watching then this can be overlooked.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r190207253-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>190207253</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Could have been better</t>
+  </si>
+  <si>
+    <t>The place looked all right, and was clean, but my overall experience was unfortunately just fair.  The ice machine wasn't working for most of my stay, and no explanation nor apology was offered.  The 5 a.m. wakeup call I requested was supplemented by one at 2:15 a.m, also without explanation or apology. No one at the front desk had much of a personality at all, so communication was difficult.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r180625973-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>180625973</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>We spent two nights in that hotel. It is quite clean, not a bad district, convenient location, covered free parking. We had a fridge &amp; a microwave in our room. They also have breakfasts, we did not try it though. The only disadvantage is the noise from the nearby roads. Our room was on the back side of the building, that is the only one quite part. So my recommendation is to ask for the room in that part.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +804,478 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jacqueline S</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Dulceamor69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r415684322-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>knichole15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r372959302-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Carolyn Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r294826206-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>ShontelleT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r259347445-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>The sign at reception says no pets aloud yet I found 6 Fluffy friends (fleas) in my bed. When we told reception they did not appear concerned with our complaint they just responded with " would you like another room?". We politely declined the offer and took the full refund and found a flea free motel elsewhere.</t>
   </si>
   <si>
+    <t>Janice H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r250263725-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Quaker0ats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r190207253-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -289,6 +310,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>koteikos</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r180625973-Econo_Lodge-Pico_Rivera_California.html</t>
@@ -808,43 +832,47 @@
       <c r="A2" t="n">
         <v>27627</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>13626</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -858,50 +886,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27627</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>142921</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -915,50 +947,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27627</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>142922</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -972,50 +1008,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27627</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>70466</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1029,41 +1069,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27627</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>142923</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -1092,50 +1136,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27627</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1153,50 +1201,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27627</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>142924</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1220,41 +1272,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27627</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>142925</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -1273,7 +1329,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
@@ -894,7 +894,7 @@
         <v>27627</v>
       </c>
       <c r="B3" t="n">
-        <v>142921</v>
+        <v>174133</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -955,7 +955,7 @@
         <v>27627</v>
       </c>
       <c r="B4" t="n">
-        <v>142922</v>
+        <v>174134</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -1077,7 +1077,7 @@
         <v>27627</v>
       </c>
       <c r="B6" t="n">
-        <v>142923</v>
+        <v>174135</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -1209,7 +1209,7 @@
         <v>27627</v>
       </c>
       <c r="B8" t="n">
-        <v>142924</v>
+        <v>174136</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -1280,7 +1280,7 @@
         <v>27627</v>
       </c>
       <c r="B9" t="n">
-        <v>142925</v>
+        <v>174137</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_236.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jacqueline S</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r554449214-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>32879</t>
+  </si>
+  <si>
+    <t>4757870</t>
+  </si>
+  <si>
+    <t>554449214</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Very reasonable and clean</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling thru the Pico Rivera area and needed a place to stay for the night that wasn’t too expensive.  We were very pleased with the reasonable price and cleanliness of the place.  The staff was very friendly and attentive.  By the way, our unit had a rain shower in it...awesome!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r532036960-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>532036960</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>The staff was very friendly. The rooms were alittle out dated. But VERY CLEAN !! really enjoyed the 3 weeks I stayed. And a great location, could walk for anything you need, and not have to fight the traffic.  Best weekly price in the area</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r432257010-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
-    <t>32879</t>
-  </si>
-  <si>
-    <t>4757870</t>
-  </si>
-  <si>
     <t>432257010</t>
   </si>
   <si>
@@ -183,9 +222,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Dulceamor69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r415684322-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -204,9 +240,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>knichole15</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r372959302-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -225,7 +258,49 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Carolyn Y</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r347079720-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>347079720</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>It's a decent place as a very good rate.</t>
+  </si>
+  <si>
+    <t>I would recommend the property and would happily stay there again,.  I think the room was fairly clean, even though because of the decor and color scheme, at first impression, it gave the appearance that it wasn't.  The bedding was fine, though there was a hole in the bedspread.  The towels were clean, but there was stains that appeared to be ink and nail polish.  The property would do better to make sure the bedding and linens are clean and in good condition.  It helps with the overall feel of cleanliness and care.  My only issue was with the TV.  It was malfunctioning and kept shutting off every hour, which would wake me up each time.  It was not the settings and because of the late hour they could not repair or replace it then, but did indicate they would address it the following day.  There were a lot of utility type trucks there from guests I assume.  The next morning, early, they were up and loud on the walkways and in the driveway.  That was not the fault of the motel though.  That particular night was not a good nights sleep for me, but as I said earlier, I would give it another chance, especially at the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I would recommend the property and would happily stay there again,.  I think the room was fairly clean, even though because of the decor and color scheme, at first impression, it gave the appearance that it wasn't.  The bedding was fine, though there was a hole in the bedspread.  The towels were clean, but there was stains that appeared to be ink and nail polish.  The property would do better to make sure the bedding and linens are clean and in good condition.  It helps with the overall feel of cleanliness and care.  My only issue was with the TV.  It was malfunctioning and kept shutting off every hour, which would wake me up each time.  It was not the settings and because of the late hour they could not repair or replace it then, but did indicate they would address it the following day.  There were a lot of utility type trucks there from guests I assume.  The next morning, early, they were up and loud on the walkways and in the driveway.  That was not the fault of the motel though.  That particular night was not a good nights sleep for me, but as I said earlier, I would give it another chance, especially at the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r302888300-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>302888300</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Some good, some bad</t>
+  </si>
+  <si>
+    <t>Looking for a low cost place for just a night within 25 minutes of Disneyland, the family ended up here. It was a mixed bag.The building has seen better days, and checking in with the staff behind bullet proof glass gives one pause. The handle to the door to get to the parking lot on the lower floor was broken off, so you had to just grab the metal pole and twist to open it.The first room we had did not have a working toilet. We I asked to switch the second room was fine. But after those issues the room was fine. It was very large, had a good air conditioner and was clean. Some of the furniture had dings and dents, but the beds were comfortable and the shower had good water pressure. It had what we needed. I wouldn't recommend it for more than a brief stay, but I feel it was fine for a quiet place to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Looking for a low cost place for just a night within 25 minutes of Disneyland, the family ended up here. It was a mixed bag.The building has seen better days, and checking in with the staff behind bullet proof glass gives one pause. The handle to the door to get to the parking lot on the lower floor was broken off, so you had to just grab the metal pole and twist to open it.The first room we had did not have a working toilet. We I asked to switch the second room was fine. But after those issues the room was fine. It was very large, had a good air conditioner and was clean. Some of the furniture had dings and dents, but the beds were comfortable and the shower had good water pressure. It had what we needed. I wouldn't recommend it for more than a brief stay, but I feel it was fine for a quiet place to sleep.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r294826206-Econo_Lodge-Pico_Rivera_California.html</t>
@@ -246,9 +321,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>ShontelleT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r259347445-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -264,9 +336,6 @@
     <t>The sign at reception says no pets aloud yet I found 6 Fluffy friends (fleas) in my bed. When we told reception they did not appear concerned with our complaint they just responded with " would you like another room?". We politely declined the offer and took the full refund and found a flea free motel elsewhere.</t>
   </si>
   <si>
-    <t>Janice H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r250263725-Econo_Lodge-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -285,10 +354,46 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Quaker0ats</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r234226245-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>234226245</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>A no frills location in a residential area. Close to freeways, 7/11, Starbucks and a Mexican restaurant/nightclub. Check in was quick and not welcoming but to the point. Parking lot could be an issue cause of the size but it wasn't packed at check in so we avoided the dilemma. The elevator in the lobby was convenient, quick and a little rickety. I stayed in 308 and it was pretty clean. No odd stains or smells. The restroom was well stocked with towels. The shower had great, almost painful water pressure but stayed warm. A fridge, microwave, iron w board and a hair dryer was a nice touch. The beds were good on the comfort scale with enough pillows and clean linens to have me refreshed and ready for a busy day. The AC was a bit loud but cold. During my stay the rooms were quiet around me with the only noise coming from house keeping in the morning.  The continental selection was terrible. Dry, prepackaged danishes and warm oj was offered with toast. I will not return for that but would stay here again for a good rate and a nights rest. Disneyland (the reason for my trip) is a 20 minute drive from here and no resort tax/fees.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>A no frills location in a residential area. Close to freeways, 7/11, Starbucks and a Mexican restaurant/nightclub. Check in was quick and not welcoming but to the point. Parking lot could be an issue cause of the size but it wasn't packed at check in so we avoided the dilemma. The elevator in the lobby was convenient, quick and a little rickety. I stayed in 308 and it was pretty clean. No odd stains or smells. The restroom was well stocked with towels. The shower had great, almost painful water pressure but stayed warm. A fridge, microwave, iron w board and a hair dryer was a nice touch. The beds were good on the comfort scale with enough pillows and clean linens to have me refreshed and ready for a busy day. The AC was a bit loud but cold. During my stay the rooms were quiet around me with the only noise coming from house keeping in the morning.  The continental selection was terrible. Dry, prepackaged danishes and warm oj was offered with toast. I will not return for that but would stay here again for a good rate and a nights rest. Disneyland (the reason for my trip) is a 20 minute drive from here and no resort tax/fees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r190225809-Econo_Lodge-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>190225809</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>so so place to stay</t>
+  </si>
+  <si>
+    <t>If you don't mind lukewarm, alternating with cold showers: then this is the place for you!!!7 complaints on review sites on cold showers. but  complain and the will tell you you're crazy, it's fine. and they checked it by touching the pipes. Yeah right like that is a test of hot water.If you also like the strong overpowering smell of curry in your nose when you walk in the office or elevator. then you will love it here!!WiFi does not work on the 3rd floor.  only sweet rolls and coffee for breakfastElvis is cool though.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r190207253-Econo_Lodge-Pico_Rivera_California.html</t>
@@ -297,22 +402,10 @@
     <t>190207253</t>
   </si>
   <si>
-    <t>01/08/2014</t>
-  </si>
-  <si>
     <t>Could have been better</t>
   </si>
   <si>
     <t>The place looked all right, and was clean, but my overall experience was unfortunately just fair.  The ice machine wasn't working for most of my stay, and no explanation nor apology was offered.  The 5 a.m. wakeup call I requested was supplemented by one at 2:15 a.m, also without explanation or apology. No one at the front desk had much of a personality at all, so communication was difficult.</t>
-  </si>
-  <si>
-    <t>December 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>koteikos</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d4757870-r180625973-Econo_Lodge-Pico_Rivera_California.html</t>
@@ -832,47 +925,43 @@
       <c r="A2" t="n">
         <v>27627</v>
       </c>
-      <c r="B2" t="n">
-        <v>13626</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -886,54 +975,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27627</v>
       </c>
-      <c r="B3" t="n">
-        <v>174133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -947,54 +1032,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27627</v>
       </c>
-      <c r="B4" t="n">
-        <v>174134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1008,54 +1089,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27627</v>
       </c>
-      <c r="B5" t="n">
-        <v>70466</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1069,123 +1146,111 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27627</v>
       </c>
-      <c r="B6" t="n">
-        <v>174135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27627</v>
       </c>
-      <c r="B7" t="n">
-        <v>6727</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="n">
@@ -1208,59 +1273,51 @@
       <c r="A8" t="n">
         <v>27627</v>
       </c>
-      <c r="B8" t="n">
-        <v>174136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1272,51 +1329,51 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27627</v>
       </c>
-      <c r="B9" t="n">
-        <v>174137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1329,7 +1386,375 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
         <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27627</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
